--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_FRAs.xlsx
@@ -20,9 +20,6 @@
     <sheet name="6M (2)" sheetId="31" r:id="rId11"/>
     <sheet name="1Y (2)" sheetId="32" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>Currency</t>
   </si>
@@ -140,6 +137,9 @@
   <si>
     <t>-Mx</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +151,7 @@
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="General_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -819,22 +819,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1129,7 +1113,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="9" customWidth="1"/>
@@ -1140,13 +1124,13 @@
     <col min="7" max="16384" width="8" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="82" t="s">
         <v>3</v>
@@ -1155,14 +1139,14 @@
       <c r="D2" s="83"/>
       <c r="E2" s="84"/>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="17"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="17"/>
       <c r="C4" s="27" t="s">
@@ -1171,7 +1155,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="17"/>
       <c r="C5" s="27" t="s">
@@ -1182,7 +1166,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="17"/>
       <c r="C6" s="27" t="s">
@@ -1193,7 +1177,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="17"/>
       <c r="C7" s="27" t="s">
@@ -1204,19 +1188,18 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="17"/>
       <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="27" t="s">
@@ -1227,15 +1210,15 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="82" t="s">
         <v>13</v>
       </c>
@@ -1246,13 +1229,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="31" t="s">
         <v>0</v>
@@ -1265,7 +1248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="31" t="s">
         <v>14</v>
@@ -1275,7 +1258,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="31" t="s">
         <v>9</v>
@@ -1285,7 +1268,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -1320,7 +1303,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -1335,7 +1318,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1357,7 +1340,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -1372,17 +1355,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC3M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>19</v>
@@ -1416,7 +1399,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>20</v>
@@ -1450,7 +1433,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="51" t="str">
         <f t="shared" ref="B5:B10" si="3">C5&amp;"M"</f>
@@ -1485,7 +1468,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="51" t="str">
         <f t="shared" si="3"/>
@@ -1520,7 +1503,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="51" t="str">
         <f t="shared" si="3"/>
@@ -1555,7 +1538,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="51" t="str">
         <f t="shared" si="3"/>
@@ -1590,7 +1573,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="51" t="str">
         <f t="shared" si="3"/>
@@ -1625,7 +1608,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -1660,7 +1643,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="12" thickBot="1">
+    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1672,7 +1655,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="H13" s="36"/>
@@ -1694,7 +1677,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" bestFit="1" customWidth="1"/>
@@ -1709,7 +1692,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -1732,7 +1715,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="71"/>
       <c r="C2" s="58"/>
@@ -1750,17 +1733,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC6M-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>19</v>
@@ -1797,7 +1780,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>20</v>
@@ -1834,7 +1817,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="56" t="str">
         <f>C5&amp;"M"</f>
@@ -1872,7 +1855,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="46" t="str">
         <f>C6&amp;"M"</f>
@@ -1910,7 +1893,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="46" t="str">
         <f t="shared" ref="B7:B22" si="3">C7&amp;"M"</f>
@@ -1948,7 +1931,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="46" t="str">
         <f t="shared" si="3"/>
@@ -1986,7 +1969,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2024,7 +2007,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2062,7 +2045,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2100,7 +2083,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2138,7 +2121,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2176,7 +2159,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2214,7 +2197,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2252,7 +2235,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2290,7 +2273,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2328,7 +2311,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2366,7 +2349,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2404,7 +2387,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2442,7 +2425,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2480,7 +2463,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2518,7 +2501,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="12" thickBot="1">
+    <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -2531,7 +2514,7 @@
       <c r="J23" s="81"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -2554,7 +2537,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
@@ -2569,7 +2552,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -2592,7 +2575,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="71"/>
       <c r="C2" s="58"/>
@@ -2610,17 +2593,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC1Y-MxRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="56" t="s">
         <v>19</v>
@@ -2657,7 +2640,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="47" t="s">
         <v>20</v>
@@ -2694,7 +2677,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="46" t="str">
         <f t="shared" ref="B5:B49" si="3">C5&amp;"M"</f>
@@ -2732,7 +2715,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2770,7 +2753,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2808,7 +2791,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2846,7 +2829,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2884,7 +2867,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2922,7 +2905,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2960,7 +2943,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="46" t="str">
         <f t="shared" si="3"/>
@@ -2998,7 +2981,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3036,7 +3019,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3074,7 +3057,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3112,7 +3095,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="str">
         <f t="shared" si="3"/>
@@ -3150,7 +3133,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="56" t="str">
         <f t="shared" si="3"/>
@@ -3188,7 +3171,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3226,7 +3209,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3264,7 +3247,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3302,7 +3285,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3340,7 +3323,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3378,7 +3361,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3416,7 +3399,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3454,7 +3437,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3492,7 +3475,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3530,7 +3513,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3568,7 +3551,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="56" t="str">
         <f t="shared" si="3"/>
@@ -3606,7 +3589,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3644,7 +3627,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3682,7 +3665,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3720,7 +3703,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3758,7 +3741,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3796,7 +3779,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3834,7 +3817,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3872,7 +3855,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3910,7 +3893,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="46" t="str">
         <f t="shared" si="3"/>
@@ -3948,7 +3931,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3986,7 +3969,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4024,7 +4007,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4062,7 +4045,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4100,7 +4083,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4138,7 +4121,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4176,7 +4159,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4214,7 +4197,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4252,7 +4235,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4290,7 +4273,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4328,7 +4311,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="46" t="str">
         <f t="shared" si="3"/>
@@ -4366,7 +4349,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4404,7 +4387,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" ht="12" thickBot="1">
+    <row r="50" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4417,7 +4400,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -4440,7 +4423,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4455,7 +4438,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4471,7 +4454,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4486,17 +4469,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YCSTDRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>20</v>
@@ -4528,7 +4511,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>22</v>
@@ -4560,7 +4543,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4572,7 +4555,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -4594,7 +4577,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4609,7 +4592,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4623,7 +4606,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4638,17 +4621,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YCRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>20</v>
@@ -4680,7 +4663,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>22</v>
@@ -4712,7 +4695,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4724,7 +4707,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -4746,7 +4729,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4761,7 +4744,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4777,7 +4760,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4792,17 +4775,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YCONRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>20</v>
@@ -4834,7 +4817,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>22</v>
@@ -4866,7 +4849,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4878,7 +4861,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -4900,7 +4883,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -4915,7 +4898,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4934,7 +4917,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -4949,17 +4932,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC1MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>19</v>
@@ -4993,7 +4976,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>20</v>
@@ -5027,7 +5010,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5039,7 +5022,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>
@@ -5061,7 +5044,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -5076,7 +5059,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5095,7 +5078,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5110,17 +5093,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC3MRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>8</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>19</v>
@@ -5154,7 +5137,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>20</v>
@@ -5188,7 +5171,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="51" t="str">
         <f t="shared" ref="B5:B10" si="3">C5&amp;"M"</f>
@@ -5223,7 +5206,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="51" t="str">
         <f t="shared" si="3"/>
@@ -5258,7 +5241,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="51" t="str">
         <f t="shared" si="3"/>
@@ -5293,7 +5276,7 @@
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="51" t="str">
         <f t="shared" si="3"/>
@@ -5328,7 +5311,7 @@
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="51" t="str">
         <f t="shared" si="3"/>
@@ -5363,7 +5346,7 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5398,7 +5381,7 @@
       </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="12" thickBot="1">
+    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5410,7 +5393,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="H13" s="36"/>
@@ -5432,7 +5415,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" bestFit="1" customWidth="1"/>
@@ -5447,7 +5430,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -5467,7 +5450,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="71"/>
       <c r="C2" s="58"/>
@@ -5485,17 +5468,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC6MRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>20</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>19</v>
@@ -5532,7 +5515,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>20</v>
@@ -5569,7 +5552,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="56" t="str">
         <f>C5&amp;"M"</f>
@@ -5607,7 +5590,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="46" t="str">
         <f>C6&amp;"M"</f>
@@ -5645,7 +5628,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="46" t="str">
         <f t="shared" ref="B7:B22" si="3">C7&amp;"M"</f>
@@ -5683,7 +5666,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5721,7 +5704,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5759,7 +5742,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5797,7 +5780,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5835,7 +5818,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5873,7 +5856,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5911,7 +5894,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5949,7 +5932,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="46" t="str">
         <f t="shared" si="3"/>
@@ -5987,7 +5970,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6025,7 +6008,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6063,7 +6046,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6101,7 +6084,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6139,7 +6122,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6177,7 +6160,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6215,7 +6198,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6253,7 +6236,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="12" thickBot="1">
+    <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -6266,7 +6249,7 @@
       <c r="J23" s="81"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -6289,7 +6272,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
@@ -6304,7 +6287,7 @@
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="40"/>
       <c r="C1" s="15"/>
@@ -6324,7 +6307,7 @@
       <c r="J1" s="38"/>
       <c r="K1" s="32"/>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="71"/>
       <c r="C2" s="58"/>
@@ -6342,17 +6325,17 @@
         <f>$H$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC1YRH_FRAs.xml</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>47</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="59" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="56" t="s">
         <v>19</v>
@@ -6389,7 +6372,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="47" t="s">
         <v>20</v>
@@ -6426,7 +6409,7 @@
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="46" t="str">
         <f t="shared" ref="B5:B49" si="3">C5&amp;"M"</f>
@@ -6464,7 +6447,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6502,7 +6485,7 @@
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6540,7 +6523,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6578,7 +6561,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6616,7 +6599,7 @@
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6654,7 +6637,7 @@
       </c>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6692,7 +6675,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6730,7 +6713,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6768,7 +6751,7 @@
       </c>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6806,7 +6789,7 @@
       </c>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6844,7 +6827,7 @@
       </c>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="42" t="str">
         <f t="shared" si="3"/>
@@ -6882,7 +6865,7 @@
       </c>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="56" t="str">
         <f t="shared" si="3"/>
@@ -6920,7 +6903,7 @@
       </c>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6958,7 +6941,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="46" t="str">
         <f t="shared" si="3"/>
@@ -6996,7 +6979,7 @@
       </c>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7034,7 +7017,7 @@
       </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7072,7 +7055,7 @@
       </c>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7110,7 +7093,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7148,7 +7131,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7186,7 +7169,7 @@
       </c>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7224,7 +7207,7 @@
       </c>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7262,7 +7245,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7300,7 +7283,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="56" t="str">
         <f t="shared" si="3"/>
@@ -7338,7 +7321,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7376,7 +7359,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7414,7 +7397,7 @@
       </c>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7452,7 +7435,7 @@
       </c>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7490,7 +7473,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7528,7 +7511,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7566,7 +7549,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7604,7 +7587,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7642,7 +7625,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7680,7 +7663,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="47" t="str">
         <f t="shared" si="3"/>
@@ -7718,7 +7701,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7756,7 +7739,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7794,7 +7777,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7832,7 +7815,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7870,7 +7853,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7908,7 +7891,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7946,7 +7929,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="46" t="str">
         <f t="shared" si="3"/>
@@ -7984,7 +7967,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="46" t="str">
         <f t="shared" si="3"/>
@@ -8022,7 +8005,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="46" t="str">
         <f t="shared" si="3"/>
@@ -8060,7 +8043,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="46" t="str">
         <f t="shared" si="3"/>
@@ -8098,7 +8081,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="47" t="str">
         <f t="shared" si="3"/>
@@ -8136,7 +8119,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" ht="12" thickBot="1">
+    <row r="50" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -8149,7 +8132,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -8172,7 +8155,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="36" customWidth="1"/>
     <col min="2" max="2" width="3" style="36" bestFit="1" customWidth="1"/>
@@ -8187,7 +8170,7 @@
     <col min="11" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8209,7 +8192,7 @@
       <c r="I1" s="38"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -8224,17 +8207,17 @@
         <f>$G$1&amp;"_FRAs.xml"</f>
         <v>EUR_YC1M-MxRH_FRAs.xml</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="35" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="54" t="s">
         <v>19</v>
@@ -8268,7 +8251,7 @@
       </c>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="52" t="s">
         <v>20</v>
@@ -8302,7 +8285,7 @@
       </c>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="12" thickBot="1">
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8314,7 +8297,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="H7" s="36"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_FRAs.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_FRAs.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>Currency</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>-Mx</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1191,9 @@
       <c r="C8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>29</v>
+      <c r="D8" s="29" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1356,12 +1354,12 @@
         <v>EUR_YC3M-MxRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -1734,12 +1732,12 @@
         <v>EUR_YC6M-MxRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -2594,12 +2592,12 @@
         <v>EUR_YC1Y-MxRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -4470,12 +4468,12 @@
         <v>EUR_YCSTDRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4622,12 +4620,12 @@
         <v>EUR_YCRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4776,12 +4774,12 @@
         <v>EUR_YCONRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -4933,12 +4931,12 @@
         <v>EUR_YC1MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5094,12 +5092,12 @@
         <v>EUR_YC3MRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H10,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -5469,12 +5467,12 @@
         <v>EUR_YC6MRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I22,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -6326,12 +6324,12 @@
         <v>EUR_YC1YRH_FRAs.xml</v>
       </c>
       <c r="I2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="59" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I49,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="59" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="16"/>
     </row>
@@ -8208,12 +8206,12 @@
         <v>EUR_YC1M-MxRH_FRAs.xml</v>
       </c>
       <c r="H2" s="35" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H4,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="16"/>
     </row>
